--- a/bolt-calculator/bolt-calculator.xlsx
+++ b/bolt-calculator/bolt-calculator.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swisher\Documents\UT Austin\Classes\Senior\Spring 2019\K\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-roguextech\longhorn-rocketry-propulsion-calculators\bolt-calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35281458-32C7-4C2B-8418-24683A3DFC99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CB9DAF-0059-45E2-89E2-51F0BB39C4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EDC6085-B8D1-4D9D-AE11-373E560318D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8EDC6085-B8D1-4D9D-AE11-373E560318D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -361,36 +370,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -405,12 +416,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,28 +744,40 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="9" max="9" width="31.88671875" customWidth="1"/>
-    <col min="13" max="13" width="37.21875" customWidth="1"/>
+    <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="42.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="38.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -757,309 +785,312 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="1">
         <f>1/C3</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>C4-(1.299038/C3)</f>
         <v>0.13587341666666666</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" t="e">
+      <c r="K2" s="1">
         <f>G6*C7/K4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" t="s">
+        <v>3402344.843837746</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <f>K6/(K6+K11)</f>
-        <v>0.13008171523794246</v>
+        <v>0.10251154439782752</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>C4-(0.64951905/C3)</f>
         <v>0.16293670625000001</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <f>G7*C7/K5</f>
         <v>1051880.8550831212</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <f>G11/(1-O2)</f>
-        <v>1934.6752420468265</v>
+        <v>1875.2434726347246</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>0.19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f>C4-(1.08253175/C3)</f>
         <v>0.14489451041666668</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <f>O3/O9</f>
-        <v>6.3640632962066661</v>
+        <v>6.1685640547194893</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>0.5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f>C4-(0.64951905/C3)</f>
         <v>0.16293670625000001</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K5" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>150000</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f>(PI()/4)*(C4)^2</f>
         <v>2.8352873698647883E-2</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <f>(G6*G7*C7)/(G7*K4+G6*K5)</f>
-        <v>1051880.8550831212</v>
-      </c>
-      <c r="M6" s="2" t="s">
+        <v>803475.54110038793</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>30000000</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f>(PI()/4)*(C4-0.9743/C3)^2</f>
         <v>1.7531347584718686E-2</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="1">
         <v>0.5</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <f>G11</f>
         <v>1683.0093681329938</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <f>(PI()/4)*G2^2</f>
         <v>1.4499695232536679E-2</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" t="s">
+      <c r="J8" s="2"/>
+      <c r="M8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <f>O2*O9</f>
-        <v>39.544841432334508</v>
+        <v>31.163509496939565</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="M9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="O9" s="1">
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10" s="2" t="s">
+    <row r="10" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="F10" s="2"/>
       <c r="I10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M10" t="s">
+      <c r="J10" s="2"/>
+      <c r="M10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <f>O7+O8</f>
-        <v>1722.5542095653284</v>
+        <v>1714.1728776299333</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <f>0.64*C6*G7</f>
         <v>1683.0093681329938</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <f>(PI()*C7*C4*TAN(0.523599))/(2*LN(5*K7*TAN(0.523599)+0.5*C4)/K7*TAN(0.523599)+2.5*C4)</f>
         <v>7034427.4562659813</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="O11" s="1">
@@ -1067,105 +1098,100 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
       <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="M13" s="2" t="s">
+      <c r="F13" s="2"/>
+      <c r="M13" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <f>G15*C4*G11</f>
         <v>65.387121408210305</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="1">
         <f>O7/G7</f>
         <v>96000</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <f>(G16/C4)*((G20+G18*G21)/(1-G18*G20*G21))+((G19*G17)/C4)</f>
         <v>0.20448058743458153</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <f>O8/G7</f>
-        <v>2255.6646738784661</v>
+        <v>1777.5877950251493</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <f>(C4+G2)/4</f>
         <v>8.1468354166666673E-2</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <f>O11/G2</f>
         <v>183.99478436117931</v>
       </c>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <f>0.625*C4</f>
         <v>0.11874999999999999</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="2" t="s">
         <v>84</v>
       </c>
       <c r="O17" s="1">
@@ -1173,40 +1199,40 @@
       </c>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>0.15</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <f>SQRT((O14+O19*(O15))^2+3*(O19*O16)^2)</f>
-        <v>100513.35023876844</v>
+        <v>99557.215889827974</v>
       </c>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>0.15</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="2" t="s">
         <v>88</v>
       </c>
       <c r="O19" s="1">
@@ -1214,121 +1240,123 @@
       </c>
     </row>
     <row r="20" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <f>1/(2*PI()*G16*C3)</f>
         <v>8.1399164497613127E-2</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="5:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="E21" t="s">
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="5:15" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <f>_xlfn.SEC(0.523599)</f>
         <v>1.1547006879804342</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <f>MIN(C4,K7)</f>
         <v>0.19</v>
       </c>
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <f>(5/8)*PI()*G3*O22</f>
         <v>6.0785840173420286E-2</v>
       </c>
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="M24" t="s">
+      <c r="M24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="1">
         <f>O10/O23</f>
-        <v>28338.083419607756</v>
+        <v>28200.200453583377</v>
       </c>
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="M25" t="s">
+      <c r="M25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="1">
         <f>0.577*C6/O24</f>
-        <v>3.0541938464375509</v>
+        <v>3.069127119945779</v>
       </c>
     </row>
     <row r="26" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="M26" t="s">
+      <c r="M26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <f>(3/4)*PI()*G5*O22</f>
         <v>7.2943008208104343E-2</v>
       </c>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="M27" t="s">
+      <c r="M27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="1">
         <f>O10/O26</f>
-        <v>23615.069516339798</v>
+        <v>23500.167044652811</v>
       </c>
     </row>
     <row r="28" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="M28" t="s">
+      <c r="M28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
         <f>0.577*C6/O27</f>
-        <v>3.6650326157250608</v>
+        <v>3.6829525439349351</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>